--- a/API/wwwroot/docs/BaoCao/BANG_KE_HOA_DON_BAN_RA_GTGT.xlsx
+++ b/API/wwwroot/docs/BaoCao/BANG_KE_HOA_DON_BAN_RA_GTGT.xlsx
@@ -526,7 +526,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -621,13 +621,13 @@
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
